--- a/biology/Botanique/Thé_tibétain/Thé_tibétain.xlsx
+++ b/biology/Botanique/Thé_tibétain/Thé_tibétain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_tib%C3%A9tain</t>
+          <t>Thé_tibétain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le thé tibétain (藏茶 ; pinyin : zāngchá ; tibétain : ཇ་སབག ་, Wylie : ja sbag ) est un thé post-fermenté (aussi appelé "thé noir" par les Chinois), produit dans la région de Ya'an en Chine (province du Sichuan). Il a été acheminé depuis des centaines d'années à dos de yacks sur l'ancienne route du thé et des chevaux entre le Sichuan et le Tibet. Il est l'ingrédient de base du thé au beurre de yack, boisson très populaire au Tibet.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9_tib%C3%A9tain</t>
+          <t>Thé_tibétain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thé tibétain est un thé post-fermenté, c'est-à-dire qu'il a subi après flétrissage et roulage une étape de fermentation. C'est donc un thé très proche du célèbre thé pu-erh.
 Traditionnellement, on le trouve sous forme de briques de thé compressé, car c'est la forme que lui donnaient les fabricants de thé pour faciliter le transport jusqu'à Lhassa. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9_tib%C3%A9tain</t>
+          <t>Thé_tibétain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Histoire [1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tradition chinoise veut que c'est pendant la dynastie Tang (618-907) que commence les échanges commerciaux entre la Chine et le Tibet, après que la princesse Wencheng soit donnée en mariage au roi tibétain Songtsen Gampo en 641. Ya'an est alors une ville frontière entre les deux pays.
 Le Tibet ayant naturellement très peu de végétaux à mettre dans leur alimentation, le thé devient un aliment indispensable pour les Tibétains.
